--- a/wp-content/themes/suite/file/2022_member.xlsx
+++ b/wp-content/themes/suite/file/2022_member.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>serial</t>
   </si>
@@ -55,6 +55,9 @@
     <t>service</t>
   </si>
   <si>
+    <t>jfjhfd</t>
+  </si>
+  <si>
     <t>越南昇煒股份有限公司</t>
   </si>
   <si>
@@ -70,10 +73,19 @@
     <t>創會會長</t>
   </si>
   <si>
+    <t>0229933</t>
+  </si>
+  <si>
     <t>024-38512901</t>
   </si>
   <si>
     <t>tsai.sunway@gmail.com</t>
+  </si>
+  <si>
+    <t>fdff</t>
+  </si>
+  <si>
+    <t>ttt</t>
   </si>
 </sst>
 </file>
@@ -81,8 +93,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -102,6 +114,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="新細明體"/>
@@ -109,16 +145,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="新細明體"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,61 +208,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="新細明體"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="新細明體"/>
@@ -195,45 +231,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="新細明體"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="新細明體"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +451,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,9 +495,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,41 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -524,30 +551,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,148 +568,148 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1018,13 +1030,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelRow="2"/>
   <cols>
     <col min="2" max="2" width="24.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="26.1111111111111" customWidth="1"/>
@@ -1081,27 +1093,86 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="32.4" spans="3:11">
+    <row r="2" ht="32.4" spans="1:13">
+      <c r="A2">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>7888333</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" ht="32.4" spans="1:13">
+      <c r="A3">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>7888333</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
